--- a/exports/statistics/analysis_cortisol_raw_chronotype.xlsx
+++ b/exports/statistics/analysis_cortisol_raw_chronotype.xlsx
@@ -194,88 +194,88 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.681e+16</t>
-  </si>
-  <si>
-    <t>3.274e+18</t>
-  </si>
-  <si>
-    <t>2.517e+13</t>
-  </si>
-  <si>
-    <t>3.043e+07</t>
-  </si>
-  <si>
-    <t>1.964e+08</t>
-  </si>
-  <si>
-    <t>377.454</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1016.175</t>
-  </si>
-  <si>
-    <t>5.347e+07</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.706</t>
+    <t>2.402e+17</t>
+  </si>
+  <si>
+    <t>6.145e+21</t>
+  </si>
+  <si>
+    <t>7.863e+14</t>
+  </si>
+  <si>
+    <t>2.041e+08</t>
+  </si>
+  <si>
+    <t>5.777e+08</t>
+  </si>
+  <si>
+    <t>253.009</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>138.04</t>
+  </si>
+  <si>
+    <t>4.281e+06</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.45</t>
   </si>
   <si>
     <t>0.347</t>
   </si>
   <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.317</t>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>1.373</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>1.874</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.341</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -745,10 +745,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.893</v>
+        <v>0.952</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.694</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.963</v>
+        <v>0.977</v>
       </c>
       <c r="D5">
-        <v>0.8100000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -792,10 +792,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
-        <v>0.131</v>
+        <v>0.144</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -807,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.862</v>
+        <v>0.918</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.913</v>
+        <v>0.88</v>
       </c>
       <c r="D8">
-        <v>0.267</v>
+        <v>0.159</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -839,13 +839,13 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.951</v>
+        <v>0.988</v>
       </c>
       <c r="D9">
-        <v>0.001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -854,13 +854,13 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.9399999999999999</v>
+        <v>0.951</v>
       </c>
       <c r="D10">
-        <v>0.034</v>
+        <v>0.107</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -869,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.958</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D11">
-        <v>0.749</v>
+        <v>0.513</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -886,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>0.968</v>
+        <v>0.978</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.109</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -901,10 +901,10 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.87</v>
+        <v>0.905</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>0.95</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D14">
-        <v>0.649</v>
+        <v>0.574</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.945</v>
+        <v>0.952</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.786</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.858</v>
+        <v>0.881</v>
       </c>
       <c r="D17">
-        <v>0.054</v>
+        <v>0.162</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1020,10 +1020,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>1.074</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D3">
-        <v>0.344</v>
+        <v>0.445</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>0.361</v>
+        <v>0.092</v>
       </c>
       <c r="D4">
-        <v>0.697</v>
+        <v>0.912</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>1.082</v>
+        <v>1.554</v>
       </c>
       <c r="D5">
-        <v>0.341</v>
+        <v>0.215</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1071,10 +1071,10 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>0.504</v>
+        <v>0.322</v>
       </c>
       <c r="D6">
-        <v>0.605</v>
+        <v>0.725</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1088,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>1.303</v>
+        <v>1.183</v>
       </c>
       <c r="D7">
-        <v>0.275</v>
+        <v>0.309</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1164,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>197.628</v>
+        <v>274.167</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F3">
-        <v>98.81399999999999</v>
+        <v>137.083</v>
       </c>
       <c r="G3">
-        <v>0.85</v>
+        <v>1.53</v>
       </c>
       <c r="H3">
-        <v>0.429</v>
+        <v>0.22</v>
       </c>
       <c r="J3">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3998.086</v>
+        <v>3329.049</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F4">
-        <v>999.522</v>
+        <v>832.2619999999999</v>
       </c>
       <c r="G4">
-        <v>53.313</v>
+        <v>56.823</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
       <c r="K4">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1237,25 +1237,25 @@
         <v>41</v>
       </c>
       <c r="C5">
-        <v>225.126</v>
+        <v>246.46</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F5">
-        <v>28.141</v>
+        <v>30.808</v>
       </c>
       <c r="G5">
-        <v>1.501</v>
+        <v>2.103</v>
       </c>
       <c r="H5">
-        <v>0.153</v>
+        <v>0.034</v>
       </c>
       <c r="J5">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-10.392</v>
+        <v>-10.893</v>
       </c>
       <c r="I3">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
@@ -1364,7 +1364,7 @@
         <v>58</v>
       </c>
       <c r="O3">
-        <v>-0.722</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-11.123</v>
+        <v>-12.624</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
@@ -1411,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="O4">
-        <v>-1.086</v>
+        <v>-1.247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-9.18</v>
+        <v>-9.907999999999999</v>
       </c>
       <c r="I5">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
@@ -1458,7 +1458,7 @@
         <v>60</v>
       </c>
       <c r="O5">
-        <v>-0.998</v>
+        <v>-1.127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-6.741</v>
+        <v>-7.162</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
@@ -1505,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="O6">
-        <v>-0.745</v>
+        <v>-0.862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-7.097</v>
+        <v>-7.362</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -1552,7 +1552,7 @@
         <v>62</v>
       </c>
       <c r="O7">
-        <v>-0.411</v>
+        <v>-0.413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.237</v>
+        <v>-4.13</v>
       </c>
       <c r="I8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1599,7 +1599,7 @@
         <v>63</v>
       </c>
       <c r="O8">
-        <v>-0.348</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1625,19 +1625,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.999</v>
+        <v>-0.97</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
       <c r="L9">
-        <v>0.342</v>
+        <v>0.371</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1646,7 +1646,7 @@
         <v>64</v>
       </c>
       <c r="O9">
-        <v>-0.092</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1672,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.952</v>
+        <v>0.539</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
       <c r="K10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="L10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1693,7 +1693,7 @@
         <v>65</v>
       </c>
       <c r="O10">
-        <v>0.048</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1719,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.495</v>
+        <v>3.96</v>
       </c>
       <c r="I11">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
@@ -1740,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1766,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6.849</v>
+        <v>6.394</v>
       </c>
       <c r="I12">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
@@ -1787,7 +1787,7 @@
         <v>67</v>
       </c>
       <c r="O12">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1813,19 +1813,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.907</v>
+        <v>-1.48</v>
       </c>
       <c r="I13">
-        <v>51.811</v>
+        <v>50.264</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
       <c r="K13">
-        <v>0.369</v>
+        <v>0.145</v>
       </c>
       <c r="L13">
-        <v>0.553</v>
+        <v>0.435</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>68</v>
       </c>
       <c r="O13">
-        <v>-0.202</v>
+        <v>-0.332</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1860,19 +1860,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.201</v>
+        <v>-0.324</v>
       </c>
       <c r="I14">
-        <v>24.246</v>
+        <v>14.143</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
       <c r="K14">
-        <v>0.842</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>0.842</v>
+        <v>0.75</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -1881,7 +1881,7 @@
         <v>69</v>
       </c>
       <c r="O14">
-        <v>0.053</v>
+        <v>-0.106</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1907,19 +1907,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.987</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I15">
-        <v>12.096</v>
+        <v>9.085000000000001</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
       </c>
       <c r="K15">
-        <v>0.343</v>
+        <v>0.591</v>
       </c>
       <c r="L15">
-        <v>0.553</v>
+        <v>0.75</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
@@ -1928,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="O15">
-        <v>0.312</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1954,19 +1954,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.602</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I16">
-        <v>54.715</v>
+        <v>69.252</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
       </c>
       <c r="K16">
-        <v>0.55</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="L16">
-        <v>0.825</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
@@ -1975,7 +1975,7 @@
         <v>71</v>
       </c>
       <c r="O16">
-        <v>0.128</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2001,19 +2001,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1.566</v>
+        <v>1.35</v>
       </c>
       <c r="I17">
-        <v>38.786</v>
+        <v>16.249</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.126</v>
+        <v>0.196</v>
       </c>
       <c r="L17">
-        <v>0.701</v>
+        <v>0.667</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -2022,7 +2022,7 @@
         <v>72</v>
       </c>
       <c r="O17">
-        <v>0.348</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2048,19 +2048,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1.466</v>
+        <v>1.434</v>
       </c>
       <c r="I18">
-        <v>16.164</v>
+        <v>11.476</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.162</v>
+        <v>0.178</v>
       </c>
       <c r="L18">
-        <v>0.701</v>
+        <v>0.667</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -2069,7 +2069,7 @@
         <v>73</v>
       </c>
       <c r="O18">
-        <v>0.31</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2095,19 +2095,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.168</v>
+        <v>-0.203</v>
       </c>
       <c r="I19">
-        <v>55.756</v>
+        <v>58.086</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
       <c r="K19">
-        <v>0.867</v>
+        <v>0.84</v>
       </c>
       <c r="L19">
-        <v>0.867</v>
+        <v>0.915</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
@@ -2116,7 +2116,7 @@
         <v>74</v>
       </c>
       <c r="O19">
-        <v>0.035</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2142,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.791</v>
+        <v>0.66</v>
       </c>
       <c r="I20">
-        <v>25.12</v>
+        <v>16.033</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.437</v>
+        <v>0.519</v>
       </c>
       <c r="L20">
-        <v>0.755</v>
+        <v>0.779</v>
       </c>
       <c r="M20" t="s">
         <v>12</v>
@@ -2163,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="O20">
-        <v>0.207</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2189,19 +2189,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.8169999999999999</v>
+        <v>0.892</v>
       </c>
       <c r="I21">
-        <v>12.932</v>
+        <v>10.196</v>
       </c>
       <c r="J21" t="s">
         <v>57</v>
       </c>
       <c r="K21">
-        <v>0.429</v>
+        <v>0.393</v>
       </c>
       <c r="L21">
-        <v>0.755</v>
+        <v>0.667</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
@@ -2210,7 +2210,7 @@
         <v>76</v>
       </c>
       <c r="O21">
-        <v>0.227</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2236,19 +2236,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.99</v>
+        <v>-1.087</v>
       </c>
       <c r="I22">
-        <v>60.933</v>
+        <v>53.184</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22">
-        <v>0.326</v>
+        <v>0.282</v>
       </c>
       <c r="L22">
-        <v>0.755</v>
+        <v>0.667</v>
       </c>
       <c r="M22" t="s">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         <v>77</v>
       </c>
       <c r="O22">
-        <v>-0.197</v>
+        <v>-0.235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2283,19 +2283,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.292</v>
+        <v>0.188</v>
       </c>
       <c r="I23">
-        <v>22.552</v>
+        <v>15.05</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23">
-        <v>0.773</v>
+        <v>0.854</v>
       </c>
       <c r="L23">
-        <v>0.857</v>
+        <v>0.915</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
@@ -2304,7 +2304,7 @@
         <v>78</v>
       </c>
       <c r="O23">
-        <v>0.08</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2330,19 +2330,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1.119</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I24">
-        <v>13.18</v>
+        <v>9.494999999999999</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.283</v>
+        <v>0.372</v>
       </c>
       <c r="L24">
-        <v>0.755</v>
+        <v>0.667</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
@@ -2351,7 +2351,7 @@
         <v>79</v>
       </c>
       <c r="O24">
-        <v>0.301</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2377,19 +2377,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-1.687</v>
+        <v>-2.071</v>
       </c>
       <c r="I25">
-        <v>57.478</v>
+        <v>55.911</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.097</v>
+        <v>0.043</v>
       </c>
       <c r="L25">
-        <v>0.701</v>
+        <v>0.322</v>
       </c>
       <c r="M25" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>80</v>
       </c>
       <c r="O25">
-        <v>-0.348</v>
+        <v>-0.434</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2424,19 +2424,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-0.395</v>
+        <v>-0.872</v>
       </c>
       <c r="I26">
-        <v>20.729</v>
+        <v>12.67</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.697</v>
+        <v>0.4</v>
       </c>
       <c r="L26">
-        <v>0.857</v>
+        <v>0.667</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
@@ -2445,7 +2445,7 @@
         <v>81</v>
       </c>
       <c r="O26">
-        <v>-0.113</v>
+        <v>-0.309</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2471,19 +2471,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.775</v>
+        <v>0.217</v>
       </c>
       <c r="I27">
-        <v>12.275</v>
+        <v>9.163</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.453</v>
+        <v>0.833</v>
       </c>
       <c r="L27">
-        <v>0.755</v>
+        <v>0.915</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
@@ -2492,7 +2492,7 @@
         <v>82</v>
       </c>
       <c r="O27">
-        <v>0.237</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2518,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1.336</v>
+        <v>-2.236</v>
       </c>
       <c r="I28">
-        <v>51.814</v>
+        <v>53.895</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.187</v>
+        <v>0.03</v>
       </c>
       <c r="L28">
-        <v>0.701</v>
+        <v>0.322</v>
       </c>
       <c r="M28" t="s">
         <v>12</v>
@@ -2539,7 +2539,7 @@
         <v>83</v>
       </c>
       <c r="O28">
-        <v>-0.297</v>
+        <v>-0.479</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2565,19 +2565,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>-0.497</v>
+        <v>-1.171</v>
       </c>
       <c r="I29">
-        <v>17.514</v>
+        <v>10.796</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.625</v>
+        <v>0.267</v>
       </c>
       <c r="L29">
-        <v>0.852</v>
+        <v>0.667</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
@@ -2586,7 +2586,7 @@
         <v>84</v>
       </c>
       <c r="O29">
-        <v>-0.156</v>
+        <v>-0.482</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2612,19 +2612,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.259</v>
+        <v>-0.249</v>
       </c>
       <c r="I30">
-        <v>11.11</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.8</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L30">
-        <v>0.857</v>
+        <v>0.915</v>
       </c>
       <c r="M30" t="s">
         <v>12</v>
@@ -2633,7 +2633,7 @@
         <v>85</v>
       </c>
       <c r="O30">
-        <v>0.106</v>
+        <v>-0.124</v>
       </c>
     </row>
   </sheetData>
